--- a/medicine/Psychotrope/Roadrunner_(cocktail)/Roadrunner_(cocktail).xlsx
+++ b/medicine/Psychotrope/Roadrunner_(cocktail)/Roadrunner_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un Road Runner ou Roadrunner (coureur de route, en anglais) est un cocktail, à base de vodka, crème de noix de coco, et angostura[1],[2], baptisé du nom des roadrunners américains (Grand Géocoucou) des déserts arides des États-Unis.
+Un Road Runner ou Roadrunner (coureur de route, en anglais) est un cocktail, à base de vodka, crème de noix de coco, et angostura baptisé du nom des roadrunners américains (Grand Géocoucou) des déserts arides des États-Unis.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Variante des Swimming Pool, Russe blanc, Piña colada, Punch coco, ou Blue Hawaii..., le nom de ce cocktail est inspiré des roadrunners américains (Grand Géocoucou) des déserts arides des États-Unis, devenus célèbres dans le monde grâce au personnage Bip Bip du Grand Canyon, de la série de dessin animé Bip Bip et Coyote, de Looney Tunes et Warner Bros.
 			Bip Bip, de Bip Bip et Coyote, de Looney Tunes
@@ -546,9 +560,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanger vigoureusement au shaker vodka, crème de noix de coco, angostura, et glaçons, jusqu'à ce que le mélange soit bien givré. Filtrer le tout dans un verre à cocktail glacé[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanger vigoureusement au shaker vodka, crème de noix de coco, angostura, et glaçons, jusqu'à ce que le mélange soit bien givré. Filtrer le tout dans un verre à cocktail glacé.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 doses de vodka
 1 dose de crème de noix de coco (ou de rhum à la noix de coco)
@@ -609,7 +627,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Punch coco, rhum, lait de coco
 Russe blanc, vodka, crème, liqueur de café
